--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19605" activeTab="10"/>
+    <workbookView windowWidth="27000" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Homework" sheetId="2" r:id="rId1"/>
@@ -24,11 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="365">
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>Intro to Data Science</t>
+  </si>
   <si>
     <t>other</t>
   </si>
   <si>
+    <t>Assignment 1 due Sep 28</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -50,16 +62,19 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>fall enrollment</t>
-  </si>
-  <si>
-    <t>reject scu gw</t>
-  </si>
-  <si>
-    <t>cancel patreon</t>
-  </si>
-  <si>
-    <t>jul</t>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>5:55-6:45 PL rec</t>
+  </si>
+  <si>
+    <t>call verizon again</t>
+  </si>
+  <si>
+    <t>10-12 wifi installation</t>
+  </si>
+  <si>
+    <t>PL assignment 1 due</t>
   </si>
   <si>
     <t>Monday</t>
@@ -1428,7 +1443,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1540,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2156,137 +2179,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2297,9 +2320,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2422,12 +2442,6 @@
     <xf numFmtId="20" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2474,6 +2488,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2801,91 +2818,177 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.75833333333333" style="60" customWidth="1"/>
-    <col min="2" max="2" width="22.7083333333333" style="60" customWidth="1"/>
-    <col min="3" max="9" width="22.7083333333333" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9" style="61"/>
-    <col min="11" max="11" width="24.45" style="61" customWidth="1"/>
-    <col min="12" max="12" width="27.3916666666667" style="61" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="5.75833333333333" style="57" customWidth="1"/>
+    <col min="2" max="2" width="22.7083333333333" style="57" customWidth="1"/>
+    <col min="3" max="9" width="22.7083333333333" style="58" customWidth="1"/>
+    <col min="10" max="10" width="9" style="58"/>
+    <col min="11" max="11" width="24.45" style="58" customWidth="1"/>
+    <col min="12" max="12" width="27.3916666666667" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" ht="29" customHeight="1" spans="2:11">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+    <row r="1" s="57" customFormat="1" ht="29" customHeight="1" spans="2:11">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="62"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" s="60" customFormat="1" ht="42" customHeight="1" spans="3:9">
-      <c r="C3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="62" t="s">
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:12">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
+      <c r="C8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="E8" s="59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="100" customHeight="1" spans="2:6">
-      <c r="B4" s="60">
-        <v>26</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="F8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="H8" s="59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="100" customHeight="1" spans="1:2">
-      <c r="A5" s="60" t="s">
+      <c r="I8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="100" customHeight="1"/>
-    <row r="7" ht="100" customHeight="1"/>
-    <row r="8" ht="100" customHeight="1"/>
-    <row r="9" ht="100" customHeight="1"/>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="1:8">
+      <c r="A9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="57">
+        <v>11</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="G9" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="2:4">
+      <c r="B10" s="57">
+        <v>18</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="2:6">
+      <c r="B11" s="57">
+        <v>25</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1"/>
+    <row r="13" ht="100" customHeight="1"/>
+    <row r="14" ht="100" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="35">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2896,6 +2999,31 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2914,18 +3042,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2937,13 +3065,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
@@ -2952,20 +3080,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -2979,9 +3107,6 @@
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3000,941 +3125,941 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.65" style="31" customWidth="1"/>
-    <col min="2" max="2" width="12.5833333333333" style="32" customWidth="1"/>
-    <col min="3" max="7" width="12.5833333333333" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.5833333333333" style="34" customWidth="1"/>
-    <col min="9" max="9" width="12.5833333333333" style="29" customWidth="1"/>
-    <col min="10" max="10" width="27.0166666666667" style="29" customWidth="1"/>
-    <col min="11" max="13" width="12.5833333333333" style="29" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="18.65" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.5833333333333" style="31" customWidth="1"/>
+    <col min="3" max="7" width="12.5833333333333" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.5833333333333" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.5833333333333" style="28" customWidth="1"/>
+    <col min="10" max="10" width="27.0166666666667" style="28" customWidth="1"/>
+    <col min="11" max="13" width="12.5833333333333" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" spans="1:8">
-      <c r="A1" s="35"/>
-      <c r="D1" s="29">
+    <row r="1" s="28" customFormat="1" spans="1:8">
+      <c r="A1" s="34"/>
+      <c r="D1" s="28">
         <v>15</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="28">
         <v>16</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="28">
         <v>17</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="28">
         <v>18</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="28">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="30" customFormat="1" spans="1:13">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="37" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:13">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>0.333333333333333</v>
       </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" s="30" customFormat="1" spans="1:13">
-      <c r="A4" s="41">
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" s="29" customFormat="1" spans="1:13">
+      <c r="A4" s="40">
         <v>0.354166666666667</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>0.375</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" s="30" customFormat="1" spans="1:13">
-      <c r="A6" s="41">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" s="29" customFormat="1" spans="1:13">
+      <c r="A6" s="40">
         <v>0.395833333333333</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="J7" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="30" customFormat="1" spans="1:13">
-      <c r="A8" s="41">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="J7" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="29" customFormat="1" spans="1:13">
+      <c r="A8" s="40">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="J9" s="29" t="s">
-        <v>22</v>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="J9" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>0.479166666666667</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="J10" s="29" t="s">
-        <v>23</v>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="J10" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>0.5</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="J11" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="30" customFormat="1" spans="1:13">
-      <c r="A12" s="41">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="J11" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="29" customFormat="1" spans="1:13">
+      <c r="A12" s="40">
         <v>0.520833333333333</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" s="30" customFormat="1" spans="1:13">
-      <c r="A14" s="41">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" s="29" customFormat="1" spans="1:13">
+      <c r="A14" s="40">
         <v>0.0625</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" s="30" customFormat="1" spans="1:13">
-      <c r="A16" s="44">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" s="29" customFormat="1" spans="1:13">
+      <c r="A16" s="43">
         <v>0.104166666666667</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>0.125</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="J17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="J17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="1" spans="1:13">
-      <c r="A18" s="44">
+    <row r="18" s="29" customFormat="1" spans="1:13">
+      <c r="A18" s="43">
         <v>0.145833333333333</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="28">
+        <v>3</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="38">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="J19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="29">
-        <v>3</v>
-      </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="39">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="J19" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="29">
+      <c r="K19" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="20" s="30" customFormat="1" spans="1:13">
-      <c r="A20" s="44">
+    <row r="20" s="29" customFormat="1" spans="1:13">
+      <c r="A20" s="43">
         <v>0.1875</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="29">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="28">
         <v>2</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>0.208333333333333</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="J21" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="29">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="J21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="22" s="30" customFormat="1" spans="1:13">
-      <c r="A22" s="44">
+    <row r="22" s="29" customFormat="1" spans="1:13">
+      <c r="A22" s="43">
         <v>0.229166666666667</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="29">
+      <c r="B22" s="41"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="28">
         <v>5</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>0.25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="34"/>
-      <c r="J23" s="59"/>
-    </row>
-    <row r="24" s="30" customFormat="1" spans="1:13">
-      <c r="A24" s="44">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" s="29" customFormat="1" spans="1:13">
+      <c r="A24" s="43">
         <v>0.270833333333333</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28">
         <f>SUM(K17:K22)</f>
         <v>24</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>0.291666666666667</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" s="30" customFormat="1" spans="1:13">
-      <c r="A26" s="44">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" s="29" customFormat="1" spans="1:13">
+      <c r="A26" s="43">
         <v>0.3125</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="43">
+      <c r="A27" s="42">
         <v>0.333333333333333</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" s="30" customFormat="1" spans="1:13">
-      <c r="A28" s="44">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" s="29" customFormat="1" spans="1:13">
+      <c r="A28" s="43">
         <v>0.354166666666667</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="43">
+      <c r="A29" s="42">
         <v>0.375</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" s="30" customFormat="1" spans="1:13">
-      <c r="A30" s="41">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" s="29" customFormat="1" spans="1:13">
+      <c r="A30" s="40">
         <v>0.395833333333333</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="39">
+      <c r="A31" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:13">
-      <c r="A32" s="41">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" s="29" customFormat="1" spans="1:13">
+      <c r="A32" s="40">
         <v>0.4375</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="39">
+      <c r="A33" s="38">
         <v>0.458333333333333</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>0.479166666666667</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="39">
+      <c r="A35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="30"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="B36" s="29"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="37" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
+      <c r="D41" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="39">
+      <c r="A42" s="38">
         <v>0.333333333333333</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="41">
+      <c r="A43" s="40">
         <v>0.354166666666667</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="39">
+      <c r="A44" s="38">
         <v>0.375</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="E44" s="52"/>
+      <c r="C44" s="33"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="41">
+      <c r="A45" s="40">
         <v>0.395833333333333</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="42"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="39">
+      <c r="A46" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="41">
+      <c r="A47" s="40">
         <v>0.4375</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="42"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="39">
+      <c r="A48" s="38">
         <v>0.458333333333333</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="41">
+      <c r="A49" s="40">
         <v>0.479166666666667</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="42"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="39">
+      <c r="A50" s="38">
         <v>0.5</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="41">
+      <c r="A51" s="40">
         <v>0.520833333333333</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="42"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="39">
+      <c r="A52" s="38">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="41">
+      <c r="A53" s="40">
         <v>0.0625</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="42"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="39">
+      <c r="A54" s="38">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="41">
+      <c r="A55" s="40">
         <v>0.104166666666667</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="42"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="39">
+      <c r="A56" s="38">
         <v>0.125</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="41">
+      <c r="A57" s="40">
         <v>0.145833333333333</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="39">
+      <c r="A58" s="38">
         <v>0.166666666666667</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="44">
+      <c r="A59" s="43">
         <v>0.1875</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="43">
+      <c r="A60" s="42">
         <v>0.208333333333333</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="44">
+      <c r="A61" s="43">
         <v>0.229166666666667</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="43">
+      <c r="A62" s="42">
         <v>0.25</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="44">
+      <c r="A63" s="43">
         <v>0.270833333333333</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="43">
+      <c r="A64" s="42">
         <v>0.291666666666667</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="44">
+      <c r="A65" s="43">
         <v>0.3125</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="43">
+      <c r="A66" s="42">
         <v>0.333333333333333</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="44">
+      <c r="A67" s="43">
         <v>0.354166666666667</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="43">
+      <c r="A68" s="42">
         <v>0.375</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="41">
+      <c r="A69" s="40">
         <v>0.395833333333333</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="39">
+      <c r="A70" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="41">
+      <c r="A71" s="40">
         <v>0.4375</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="39">
+      <c r="A72" s="38">
         <v>0.458333333333333</v>
       </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="41">
+      <c r="A73" s="40">
         <v>0.479166666666667</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3960,399 +4085,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0166666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.06666666666667" style="9" customWidth="1"/>
-    <col min="2" max="6" width="18.0166666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.39166666666667" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="18.0166666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.06666666666667" style="8" customWidth="1"/>
+    <col min="2" max="6" width="18.0166666666667" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.39166666666667" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="18.0166666666667" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="17" customFormat="1" spans="2:8">
-      <c r="B3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="1" spans="2:9">
-      <c r="B4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="18" t="s">
+    <row r="3" s="16" customFormat="1" spans="2:8">
+      <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="18" t="s">
+    </row>
+    <row r="4" s="17" customFormat="1" spans="2:9">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>42</v>
+      <c r="C4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="2:9">
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="2:8">
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="3:8">
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="3:7">
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="3:7">
+      <c r="C12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="3:7">
+      <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="3:7">
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="7:7">
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="7:13">
+      <c r="G16" s="19"/>
+      <c r="H16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="7:13">
+      <c r="G17" s="19"/>
+      <c r="H17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="7:13">
+      <c r="G18" s="19"/>
+      <c r="H18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="7:13">
+      <c r="G19" s="19"/>
+      <c r="H19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="7:13">
+      <c r="G20" s="19"/>
+      <c r="H20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="7:13">
+      <c r="G21" s="19"/>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="8">
         <v>54</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="2:9">
-      <c r="B8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="3:8">
-      <c r="C10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="3:7">
-      <c r="C11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" s="9" customFormat="1" spans="3:7">
-      <c r="C12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="3:7">
-      <c r="C13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="3:7">
-      <c r="C14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" s="9" customFormat="1" spans="7:7">
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="7:13">
-      <c r="G16" s="20"/>
-      <c r="H16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="7:13">
-      <c r="G17" s="20"/>
-      <c r="H17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="7:13">
-      <c r="G18" s="20"/>
-      <c r="H18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="1" spans="7:13">
-      <c r="G19" s="20"/>
-      <c r="H19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" s="9" customFormat="1" spans="7:13">
-      <c r="G20" s="20"/>
-      <c r="H20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="1" spans="7:13">
-      <c r="G21" s="20"/>
-      <c r="H21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="9">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" s="9" customFormat="1" spans="7:8">
-      <c r="G22" s="20"/>
-      <c r="H22" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" s="9" customFormat="1" spans="7:8">
-      <c r="G23" s="20"/>
-      <c r="H23" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" s="9" customFormat="1" spans="7:8">
-      <c r="G24" s="20"/>
-      <c r="H24" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" s="9" customFormat="1" spans="7:7">
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" s="9" customFormat="1" spans="7:7">
-      <c r="G26" s="20"/>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="7:8">
+      <c r="G22" s="19"/>
+      <c r="H22" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="7:8">
+      <c r="G23" s="19"/>
+      <c r="H23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="7:8">
+      <c r="G24" s="19"/>
+      <c r="H24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="7:7">
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="7:7">
+      <c r="G26" s="19"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" s="19" customFormat="1" ht="38.25" spans="2:9">
-      <c r="B34" s="25" t="s">
+      <c r="F33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26" t="s">
+      <c r="G33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="H33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="I34" s="25" t="s">
+      <c r="I33" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="38.25" spans="2:9">
-      <c r="B35" s="26" t="s">
+      <c r="J33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26" t="s">
+    </row>
+    <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
+      <c r="B34" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="I35" s="26" t="s">
+      <c r="F34" s="24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="51" spans="2:9">
-      <c r="B36" s="26" t="s">
+      <c r="G34" s="26"/>
+      <c r="I34" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
+    </row>
+    <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
+      <c r="B35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="F35" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="G35" s="26"/>
+      <c r="I35" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="1" ht="51" spans="2:8">
-      <c r="B37" s="26" t="s">
+    <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
+      <c r="B36" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F36" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G36" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="I36" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" s="19" customFormat="1" ht="38.25" spans="2:8">
-      <c r="B38" s="26" t="s">
+    <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
+      <c r="B37" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F37" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="26" t="s">
+      <c r="G37" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="38.25" spans="2:7">
-      <c r="B39" s="26" t="s">
+      <c r="H37" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" s="19" customFormat="1" ht="38.25" spans="2:7">
-      <c r="B40" s="26" t="s">
+    </row>
+    <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
+      <c r="B38" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" s="19" customFormat="1" ht="12.75" spans="7:7">
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" s="19" customFormat="1" ht="12.75" spans="7:7">
-      <c r="G42" s="27"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
+      <c r="B39" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
+      <c r="B40" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" s="18" customFormat="1" ht="12.75" spans="7:7">
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" s="18" customFormat="1" ht="12.75" spans="7:7">
+      <c r="G42" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4371,296 +4496,296 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="15.6833333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.6666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.4916666666667" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.2166666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.2166666666667" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.7083333333333" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="15.6833333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.4916666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.2166666666667" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.2166666666667" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7083333333333" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>43</v>
+      <c r="A2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>125</v>
+      <c r="C3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="C4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>129</v>
+      <c r="A4" s="11"/>
+      <c r="C4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="C5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>134</v>
+      <c r="A5" s="12"/>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="C6" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>138</v>
+      <c r="A6" s="13"/>
+      <c r="C6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>141</v>
+      <c r="A7" s="14"/>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="C8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>143</v>
+      <c r="A8" s="15"/>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>145</v>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>146</v>
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9" t="s">
-        <v>147</v>
+      <c r="C11" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>148</v>
+      <c r="A12" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
-        <v>149</v>
+      <c r="C18" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>152</v>
+      <c r="C19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>155</v>
+      <c r="C20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>158</v>
+      <c r="C21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>161</v>
+      <c r="C22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>164</v>
+      <c r="C23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="9" t="s">
-        <v>165</v>
+      <c r="C24" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9" t="s">
-        <v>166</v>
+      <c r="C25" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="9" t="s">
-        <v>167</v>
+      <c r="C26" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="9" t="s">
-        <v>168</v>
+      <c r="C27" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9" t="s">
-        <v>169</v>
+      <c r="C28" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="9" t="s">
-        <v>170</v>
+      <c r="C29" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9" t="s">
-        <v>171</v>
+      <c r="C30" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9" t="s">
-        <v>172</v>
+      <c r="C31" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="8" t="s">
-        <v>173</v>
+      <c r="C34" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="9" t="s">
-        <v>174</v>
+      <c r="C35" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="9" t="s">
-        <v>175</v>
+      <c r="C36" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="9" t="s">
-        <v>176</v>
+      <c r="C37" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="9" t="s">
-        <v>177</v>
+      <c r="C38" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="9" t="s">
-        <v>178</v>
+      <c r="C39" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="9" t="s">
-        <v>179</v>
+      <c r="C40" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="9" t="s">
-        <v>180</v>
+      <c r="C41" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="9" t="s">
-        <v>181</v>
+      <c r="C42" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="9" t="s">
-        <v>182</v>
+      <c r="C43" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4680,179 +4805,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.6083333333333" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="34.6083333333333" style="9" customWidth="1"/>
+    <col min="1" max="16384" width="34.6083333333333" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>186</v>
+    <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>74</v>
+        <v>206</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
-      <c r="D14" s="9" t="s">
-        <v>222</v>
+      <c r="D14" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>224</v>
+      <c r="A16" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>225</v>
+      <c r="A17" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4872,85 +4997,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="17.375" style="7" customWidth="1"/>
+    <col min="1" max="16384" width="17.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>228</v>
+    <row r="1" s="5" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>231</v>
+      <c r="A2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>234</v>
+      <c r="A3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>237</v>
+      <c r="A4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>240</v>
+      <c r="A5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>242</v>
+      <c r="A6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
-        <v>243</v>
+      <c r="C7" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
-        <v>244</v>
+      <c r="C8" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
-        <v>245</v>
+      <c r="C9" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4970,399 +5095,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="43.8416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="37.5916666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="42.3083333333333" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="43.8416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="37.5916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="42.3083333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>251</v>
+      <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>254</v>
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>257</v>
+      <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>260</v>
+      <c r="B6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>263</v>
+      <c r="B7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>264</v>
+      <c r="B8" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>265</v>
+      <c r="B9" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
-        <v>266</v>
+      <c r="B10" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
-        <v>267</v>
+      <c r="B11" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
-        <v>268</v>
+      <c r="B12" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
-        <v>269</v>
+      <c r="B13" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
-        <v>270</v>
+      <c r="B14" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
-        <v>271</v>
+      <c r="B15" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
-        <v>272</v>
+      <c r="B16" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
-        <v>273</v>
+      <c r="B17" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>274</v>
+      <c r="B18" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
-        <v>275</v>
+      <c r="B19" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>276</v>
+      <c r="B20" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
-        <v>277</v>
+      <c r="B21" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
-        <v>278</v>
+      <c r="B22" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>279</v>
+      <c r="B23" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
-        <v>280</v>
+      <c r="B24" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
-        <v>281</v>
+      <c r="B25" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
-        <v>282</v>
+      <c r="B26" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
-        <v>283</v>
+      <c r="B27" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
-        <v>284</v>
+      <c r="B28" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
-        <v>285</v>
+      <c r="B29" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
-        <v>286</v>
+      <c r="B30" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
-        <v>287</v>
+      <c r="B31" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
-        <v>288</v>
+      <c r="B32" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
-        <v>289</v>
+      <c r="B33" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>290</v>
+      <c r="B34" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
-        <v>291</v>
+      <c r="B35" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
-        <v>292</v>
+      <c r="B36" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
-        <v>293</v>
+      <c r="B37" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
-        <v>294</v>
+      <c r="B38" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
-        <v>295</v>
+      <c r="B39" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
-        <v>296</v>
+      <c r="B40" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
-        <v>297</v>
+      <c r="B41" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
-        <v>298</v>
+      <c r="B42" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
-        <v>299</v>
+      <c r="B43" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
-        <v>300</v>
+      <c r="B44" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
-        <v>301</v>
+      <c r="B45" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
-        <v>302</v>
+      <c r="B46" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
-        <v>303</v>
+      <c r="B47" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
-        <v>304</v>
+      <c r="B48" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
-        <v>305</v>
+      <c r="B49" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
-        <v>306</v>
+      <c r="B50" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
-        <v>307</v>
+      <c r="B51" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
-        <v>308</v>
+      <c r="B52" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
-        <v>309</v>
+      <c r="B53" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
-        <v>311</v>
+      <c r="B55" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
-        <v>312</v>
+      <c r="B56" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
-        <v>313</v>
+      <c r="B57" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
-        <v>314</v>
+      <c r="B58" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
-        <v>315</v>
+      <c r="B59" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
-        <v>316</v>
+      <c r="B60" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
-        <v>317</v>
+      <c r="B61" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
-        <v>318</v>
+      <c r="B62" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4" t="s">
-        <v>319</v>
+      <c r="B63" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4" t="s">
-        <v>320</v>
+      <c r="B64" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4" t="s">
-        <v>321</v>
+      <c r="B65" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
-        <v>322</v>
+      <c r="B66" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4" t="s">
-        <v>323</v>
+      <c r="B67" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
-        <v>324</v>
+      <c r="B68" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
-        <v>325</v>
+      <c r="B69" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
-        <v>326</v>
+      <c r="B70" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>327</v>
+      <c r="B71" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5382,80 +5507,80 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1666666666667" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.175" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.425" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="17.1666666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.175" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.425" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>335</v>
+      <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>336</v>
+      <c r="A3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="A4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="1">
         <v>14999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>339</v>
+      <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>341</v>
+      <c r="A6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>343</v>
+      <c r="A7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5475,45 +5600,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="23.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.3" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>345</v>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>347</v>
+      <c r="A2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>350</v>
+      <c r="A3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>352</v>
+      <c r="A4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -2960,7 +2960,6 @@
       <c r="B9" s="57">
         <v>11</v>
       </c>
-      <c r="C9" s="58"/>
       <c r="G9" s="58" t="s">
         <v>13</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -62,19 +62,20 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>5:55-6:45 PL rec</t>
-  </si>
-  <si>
-    <t>call verizon again</t>
-  </si>
-  <si>
     <t>10-12 wifi installation</t>
   </si>
   <si>
+    <t>DS quiz
+DS survey</t>
+  </si>
+  <si>
     <t>PL assignment 1 due</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>no class</t>
   </si>
   <si>
     <t>Monday</t>
@@ -2818,10 +2819,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2953,39 +2954,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="1:8">
-      <c r="A9" s="57" t="s">
+    <row r="9" ht="100" customHeight="1" spans="2:6">
+      <c r="B9" s="57">
+        <v>18</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57">
-        <v>11</v>
-      </c>
-      <c r="G9" s="58" t="s">
+      <c r="F9" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="58" t="s">
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="2:6">
+      <c r="B10" s="57">
+        <v>25</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="2:4">
-      <c r="B10" s="57">
-        <v>18</v>
-      </c>
-      <c r="D10" s="58" t="s">
+    <row r="11" ht="100" customHeight="1" spans="1:2">
+      <c r="A11" s="57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="2:6">
       <c r="B11" s="57">
-        <v>25</v>
-      </c>
-      <c r="F11" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="2:4">
+      <c r="B12" s="57">
+        <v>9</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" ht="100" customHeight="1"/>
-    <row r="13" ht="100" customHeight="1"/>
-    <row r="14" ht="100" customHeight="1"/>
+      <c r="D12" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="2:2">
+      <c r="B13" s="57">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="B1:C1"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -41,6 +41,15 @@
     <t>Assignment 1 due Sep 28</t>
   </si>
   <si>
+    <t>ungraded assignment email prof</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -62,11 +71,9 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>10-12 wifi installation</t>
-  </si>
-  <si>
-    <t>DS quiz
-DS survey</t>
+    <t>pl hw
+PL notes
+start on flex+bison</t>
   </si>
   <si>
     <t>PL assignment 1 due</t>
@@ -2821,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2856,9 +2863,15 @@
       </c>
       <c r="K1" s="59"/>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:6">
       <c r="B2" s="58" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
@@ -2867,7 +2880,9 @@
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="F3" s="58" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
@@ -2933,36 +2948,42 @@
     </row>
     <row r="8" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
       <c r="C8" s="59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="2:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="2:9">
       <c r="B9" s="57">
         <v>18</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>13</v>
+      <c r="F9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="100" customHeight="1" spans="2:6">
@@ -2970,12 +2991,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:2">
       <c r="A11" s="57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="57">
         <v>2</v>
@@ -2986,10 +3007,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="100" customHeight="1" spans="2:2">
@@ -3057,13 +3078,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3090,20 +3111,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3166,25 +3187,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3238,7 +3259,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3255,7 +3276,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3271,7 +3292,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3288,7 +3309,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3303,7 +3324,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3317,7 +3338,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3333,7 +3354,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3391,7 +3412,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3408,7 +3429,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3427,7 +3448,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3446,7 +3467,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3465,7 +3486,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3479,16 +3500,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3507,7 +3528,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3535,7 +3556,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3556,7 +3577,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3598,7 +3619,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3709,25 +3730,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4103,172 +4124,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4278,7 +4299,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4287,7 +4308,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4296,7 +4317,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4305,7 +4326,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4314,7 +4335,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4323,7 +4344,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4332,19 +4353,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4355,121 +4376,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4477,7 +4498,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4518,284 +4539,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4820,174 +4841,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5012,80 +5033,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5116,388 +5137,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5524,46 +5545,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5571,26 +5592,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5618,37 +5639,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="368">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Assignment 1 due Sep 28</t>
   </si>
   <si>
-    <t>ungraded assignment email prof</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -69,11 +66,21 @@
   </si>
   <si>
     <t>Sun</t>
+  </si>
+  <si>
+    <t>pl hw
+PL notes
+activation record notes
+lecture 3 stuff
+start on flex+bison</t>
   </si>
   <si>
     <t>pl hw
 PL notes
 start on flex+bison</t>
+  </si>
+  <si>
+    <t>pl hw</t>
   </si>
   <si>
     <t>PL assignment 1 due</t>
@@ -2829,7 +2836,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2867,11 +2874,8 @@
       <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
@@ -2881,7 +2885,7 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -2948,39 +2952,33 @@
     </row>
     <row r="8" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
       <c r="C8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="F8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="G8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="H8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="I8" s="59" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" ht="100" customHeight="1" spans="2:9">
       <c r="B9" s="57">
         <v>18</v>
       </c>
-      <c r="F9" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="58" t="s">
         <v>15</v>
@@ -2990,13 +2988,19 @@
       <c r="B10" s="57">
         <v>25</v>
       </c>
+      <c r="C10" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:2">
       <c r="A11" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="57">
         <v>2</v>
@@ -3007,10 +3011,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="100" customHeight="1" spans="2:2">
@@ -3078,13 +3082,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3111,20 +3115,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3187,25 +3191,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3259,7 +3263,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3276,7 +3280,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3292,7 +3296,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3309,7 +3313,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3324,7 +3328,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3338,7 +3342,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3354,7 +3358,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3412,7 +3416,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3429,7 +3433,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3448,7 +3452,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3467,7 +3471,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3486,7 +3490,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3500,16 +3504,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3528,7 +3532,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3556,7 +3560,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3577,7 +3581,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3619,7 +3623,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3730,25 +3734,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4124,172 +4128,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4299,7 +4303,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4308,7 +4312,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4317,7 +4321,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4326,7 +4330,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4335,7 +4339,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4344,7 +4348,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4353,19 +4357,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4376,121 +4380,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4498,7 +4502,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4539,284 +4543,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4841,174 +4845,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5033,80 +5037,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5137,388 +5141,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5545,46 +5549,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5592,26 +5596,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5639,37 +5643,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="368">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -68,28 +68,36 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>pl hw
-PL notes
-activation record notes
-lecture 3 stuff
-start on flex+bison</t>
-  </si>
-  <si>
-    <t>pl hw
-PL notes
-start on flex+bison</t>
-  </si>
-  <si>
-    <t>pl hw</t>
-  </si>
-  <si>
-    <t>PL assignment 1 due</t>
+    <t>flex+bison</t>
+  </si>
+  <si>
+    <t>PL assignment 1 11:59pm</t>
   </si>
   <si>
     <t>oct</t>
   </si>
   <si>
+    <t>verzion call me</t>
+  </si>
+  <si>
     <t>no class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no class
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CG hw1 due 11:59pm</t>
+    </r>
   </si>
   <si>
     <t>Monday</t>
@@ -2833,10 +2841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2973,52 +2981,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="2:9">
+    <row r="9" ht="100" customHeight="1" spans="2:6">
       <c r="B9" s="57">
+        <v>25</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:3">
+      <c r="A10" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="57">
+        <v>2</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="2:4">
+      <c r="B11" s="57">
+        <v>9</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="2:6">
-      <c r="B10" s="57">
-        <v>25</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:2">
-      <c r="A11" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1" spans="2:4">
+      <c r="D11" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="2:2">
       <c r="B12" s="57">
-        <v>9</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="2:2">
-      <c r="B13" s="57">
         <v>16</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="372">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Assignment 1 due Sep 28</t>
   </si>
   <si>
+    <t>HW1 due oct 10</t>
+  </si>
+  <si>
     <t>survey</t>
   </si>
   <si>
@@ -68,12 +71,28 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>flex+bison</t>
-  </si>
-  <si>
     <t>PL assignment 1 11:59pm</t>
   </si>
   <si>
+    <r>
+      <t>3pm cg zoom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+pl notes
+cg hw</t>
+    </r>
+  </si>
+  <si>
+    <t>cg hw</t>
+  </si>
+  <si>
     <t>oct</t>
   </si>
   <si>
@@ -84,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">no class
 </t>
     </r>
@@ -98,6 +123,12 @@
       </rPr>
       <t>CG hw1 due 11:59pm</t>
     </r>
+  </si>
+  <si>
+    <t>PL HW2 due 11:59</t>
+  </si>
+  <si>
+    <t>PL MIDTERM!!!!</t>
   </si>
   <si>
     <t>Monday</t>
@@ -2841,10 +2872,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2882,8 +2913,11 @@
       <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="58" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
@@ -2893,7 +2927,7 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -2960,67 +2994,88 @@
     </row>
     <row r="8" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
       <c r="C8" s="59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="2:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="2:8">
       <c r="B9" s="57">
         <v>25</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="60" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" ht="100" customHeight="1" spans="1:3">
       <c r="A10" s="57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="57">
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="2:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="2:5">
       <c r="B11" s="57">
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="2:2">
       <c r="B12" s="57">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="2:2">
+      <c r="B13" s="57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" spans="2:4">
+      <c r="B14" s="57">
+        <v>30</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" spans="2:2">
+      <c r="B15" s="57">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3083,13 +3138,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3116,20 +3171,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3192,25 +3247,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3264,7 +3319,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3281,7 +3336,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3297,7 +3352,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3314,7 +3369,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3329,7 +3384,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3343,7 +3398,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3359,7 +3414,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3417,7 +3472,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3434,7 +3489,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3453,7 +3508,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3472,7 +3527,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3491,7 +3546,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3505,16 +3560,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3533,7 +3588,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3561,7 +3616,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3582,7 +3637,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3624,7 +3679,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3735,25 +3790,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4129,172 +4184,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4304,7 +4359,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4313,7 +4368,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4322,7 +4377,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4331,7 +4386,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4340,7 +4395,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4349,7 +4404,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4358,19 +4413,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4381,121 +4436,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4503,7 +4558,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4544,284 +4599,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4846,174 +4901,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5038,80 +5093,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5142,388 +5197,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5550,46 +5605,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5597,26 +5652,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5644,37 +5699,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="373">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -86,6 +86,8 @@
       </rPr>
       <t xml:space="preserve">
 pl notes
+revise C/C++
+revise trig
 cg hw</t>
     </r>
   </si>
@@ -96,7 +98,11 @@
     <t>oct</t>
   </si>
   <si>
-    <t>verzion call me</t>
+    <t>verzion call me
+cg hw</t>
+  </si>
+  <si>
+    <t>pl hw</t>
   </si>
   <si>
     <t>no class</t>
@@ -2875,7 +2881,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3015,7 +3021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="2:8">
+    <row r="9" ht="100" customHeight="1" spans="2:9">
       <c r="B9" s="57">
         <v>25</v>
       </c>
@@ -3028,8 +3034,11 @@
       <c r="H9" s="58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:3">
+      <c r="I9" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:5">
       <c r="A10" s="57" t="s">
         <v>18</v>
       </c>
@@ -3038,6 +3047,12 @@
       </c>
       <c r="C10" s="58" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="100" customHeight="1" spans="2:5">
@@ -3045,13 +3060,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="2:2">
@@ -3068,9 +3083,8 @@
       <c r="B14" s="57">
         <v>30</v>
       </c>
-      <c r="C14" s="58"/>
       <c r="D14" s="60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="100" customHeight="1" spans="2:2">
@@ -3138,13 +3152,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3171,20 +3185,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3247,25 +3261,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3319,7 +3333,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3336,7 +3350,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3352,7 +3366,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3369,7 +3383,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3384,7 +3398,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3398,7 +3412,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3414,7 +3428,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3472,7 +3486,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3489,7 +3503,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3508,7 +3522,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3527,7 +3541,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3546,7 +3560,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3560,16 +3574,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3588,7 +3602,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3616,7 +3630,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3637,7 +3651,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3679,7 +3693,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3790,25 +3804,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4184,172 +4198,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4359,7 +4373,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4368,7 +4382,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4377,7 +4391,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4386,7 +4400,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4395,7 +4409,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4404,7 +4418,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4413,19 +4427,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4436,121 +4450,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4558,7 +4572,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4599,284 +4613,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4901,174 +4915,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5093,80 +5107,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5197,388 +5211,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5605,46 +5619,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5652,26 +5666,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5699,37 +5713,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Sun</t>
-  </si>
-  <si>
-    <t>PL assignment 1 11:59pm</t>
   </si>
   <si>
     <r>
@@ -85,11 +82,13 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-pl notes
-revise C/C++
-revise trig
+pl notes: lambda calc, scheme, binding, all past lectures
+revise C/C++</t>
+    </r>
+  </si>
+  <si>
+    <t>revise trig
 cg hw</t>
-    </r>
   </si>
   <si>
     <t>cg hw</t>
@@ -2881,7 +2880,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3025,14 +3024,12 @@
       <c r="B9" s="57">
         <v>25</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="H9" s="58" t="s">
         <v>16</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>17</v>
       </c>
       <c r="I9" s="58" t="s">
         <v>17</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27000" windowHeight="12975"/>
+    <workbookView windowHeight="20055"/>
   </bookViews>
   <sheets>
     <sheet name="Homework" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="375">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Intro to Data Science</t>
   </si>
   <si>
+    <t>MISC TO-DO</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
@@ -47,6 +50,17 @@
     <t>survey</t>
   </si>
   <si>
+    <t>find mma club
+pseg how to pay elec fee
+school clubs</t>
+  </si>
+  <si>
+    <t>bbv art
+bbv fic
+charthur cgs
+charthur fics</t>
+  </si>
+  <si>
     <t>quiz</t>
   </si>
   <si>
@@ -71,37 +85,24 @@
     <t>Sun</t>
   </si>
   <si>
-    <r>
-      <t>3pm cg zoom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-pl notes: lambda calc, scheme, binding, all past lectures
-revise C/C++</t>
-    </r>
-  </si>
-  <si>
-    <t>revise trig
-cg hw</t>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>watch cg lecture (1hr)
+start on pl hw2 (3hr)
+read thru cg hw1 (1hr)
+ds aaa + hw (2hr)</t>
+  </si>
+  <si>
+    <t>verizon call
+fin pl hw2 non-prog qs
+start on cg hw</t>
   </si>
   <si>
     <t>cg hw</t>
   </si>
   <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>verzion call me
-cg hw</t>
-  </si>
-  <si>
-    <t>pl hw</t>
+    <t>pl scheme</t>
   </si>
   <si>
     <t>no class</t>
@@ -2011,7 +2012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2121,6 +2122,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2244,7 +2256,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2256,34 +2268,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2368,7 +2380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2549,7 +2561,19 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2877,10 +2901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2907,41 +2931,49 @@
         <v>2</v>
       </c>
       <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="H1" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="I1" s="59"/>
       <c r="J1" s="59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="59"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" ht="22" customHeight="1" spans="2:9">
       <c r="B2" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:12">
+        <v>7</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="58"/>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
     </row>
-    <row r="4" customFormat="1" spans="1:12">
+    <row r="4" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -2949,148 +2981,97 @@
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
     </row>
-    <row r="5" customFormat="1" spans="1:12">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:12">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-    </row>
-    <row r="8" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
-      <c r="C8" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="59" t="s">
+    <row r="5" s="57" customFormat="1" ht="42" customHeight="1" spans="3:9">
+      <c r="C5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:7">
+      <c r="A6" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="2:5">
+      <c r="B7" s="57">
         <v>9</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="2:9">
+      <c r="C7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="2:2">
+      <c r="B8" s="57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="2:2">
       <c r="B9" s="57">
-        <v>25</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:5">
-      <c r="A10" s="57" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="2:4">
       <c r="B10" s="57">
-        <v>2</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="2:5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="2:2">
       <c r="B11" s="57">
-        <v>9</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1" spans="2:2">
-      <c r="B12" s="57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="2:2">
-      <c r="B13" s="57">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="100" customHeight="1" spans="2:4">
-      <c r="B14" s="57">
-        <v>30</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="100" customHeight="1" spans="2:2">
-      <c r="B15" s="57">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="19">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -3099,33 +3080,17 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3149,13 +3114,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3182,20 +3147,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3258,25 +3223,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3330,7 +3295,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3347,7 +3312,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3363,7 +3328,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3380,7 +3345,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3395,7 +3360,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3409,7 +3374,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3425,7 +3390,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3483,7 +3448,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3500,7 +3465,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3519,7 +3484,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3538,7 +3503,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3557,7 +3522,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3571,16 +3536,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3599,7 +3564,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3627,7 +3592,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3648,7 +3613,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3690,7 +3655,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3801,25 +3766,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4195,172 +4160,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4370,7 +4335,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4379,7 +4344,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4388,7 +4353,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4397,7 +4362,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4406,7 +4371,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4415,7 +4380,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4424,19 +4389,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4447,121 +4412,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4569,7 +4534,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4610,284 +4575,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4912,174 +4877,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5104,80 +5069,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5208,388 +5173,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5616,46 +5581,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5663,26 +5628,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5710,37 +5675,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20055"/>
+    <workbookView windowWidth="27015" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Homework" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="371">
   <si>
     <t>Programming Languages</t>
   </si>
@@ -83,29 +83,6 @@
   </si>
   <si>
     <t>Sun</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>watch cg lecture (1hr)
-start on pl hw2 (3hr)
-read thru cg hw1 (1hr)
-ds aaa + hw (2hr)</t>
-  </si>
-  <si>
-    <t>verizon call
-fin pl hw2 non-prog qs
-start on cg hw</t>
-  </si>
-  <si>
-    <t>cg hw</t>
-  </si>
-  <si>
-    <t>pl scheme</t>
-  </si>
-  <si>
-    <t>no class</t>
   </si>
   <si>
     <r>
@@ -131,7 +108,45 @@
     </r>
   </si>
   <si>
-    <t>PL HW2 due 11:59</t>
+    <r>
+      <t>pl h2 finish
+cg hw</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+PL HW2 due 11:59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ds aaa + hw
+cg notes
+ds notes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DS AAA + HW</t>
+    </r>
+  </si>
+  <si>
+    <t>cg notes, learn more
+notes</t>
   </si>
   <si>
     <t>PL MIDTERM!!!!</t>
@@ -2380,7 +2395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2559,9 +2574,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,10 +2913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2950,10 +2962,10 @@
       <c r="F2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2967,8 +2979,8 @@
         <v>10</v>
       </c>
       <c r="G3" s="58"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="58"/>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
@@ -2981,8 +2993,8 @@
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
@@ -3010,63 +3022,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:7">
-      <c r="A6" s="57" t="s">
+    <row r="6" ht="100" customHeight="1" spans="2:7">
+      <c r="B6" s="57">
+        <v>9</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="57">
-        <v>2</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="E6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="F6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="G6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1" spans="2:5">
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="2:2">
       <c r="B7" s="57">
-        <v>9</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:2">
       <c r="B8" s="57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="2:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="2:4">
       <c r="B9" s="57">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="2:4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="2:2">
       <c r="B10" s="57">
-        <v>30</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="2:2">
-      <c r="B11" s="57">
         <v>6</v>
       </c>
     </row>
@@ -3114,13 +3107,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3147,20 +3140,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3223,25 +3216,25 @@
     <row r="2" s="29" customFormat="1" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3295,7 +3288,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3312,7 +3305,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="1" spans="1:13">
@@ -3328,7 +3321,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="28"/>
       <c r="J8" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3345,7 +3338,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3360,7 +3353,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="J10" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3374,7 +3367,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="1" spans="1:13">
@@ -3390,7 +3383,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3448,7 +3441,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="28"/>
       <c r="J16" s="56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -3465,7 +3458,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K17" s="28">
         <v>8</v>
@@ -3484,7 +3477,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18" s="28">
         <v>3</v>
@@ -3503,7 +3496,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="28">
         <v>2</v>
@@ -3522,7 +3515,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K20" s="28">
         <v>2</v>
@@ -3536,16 +3529,16 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G21" s="33"/>
       <c r="J21" s="56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K21" s="28">
         <v>4</v>
@@ -3564,7 +3557,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22" s="28">
         <v>5</v>
@@ -3592,7 +3585,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3613,7 +3606,7 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="33"/>
@@ -3655,7 +3648,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -3766,25 +3759,25 @@
     <row r="41" spans="1:8">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="G41" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="H41" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4160,172 +4153,172 @@
   <sheetData>
     <row r="3" s="16" customFormat="1" spans="2:8">
       <c r="B3" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="2:9">
       <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="2:8">
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="3:8">
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="3:7">
       <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="3:7">
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4335,7 +4328,7 @@
     <row r="16" s="8" customFormat="1" spans="7:13">
       <c r="G16" s="19"/>
       <c r="H16" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M16" s="8">
         <v>59</v>
@@ -4344,7 +4337,7 @@
     <row r="17" s="8" customFormat="1" spans="7:13">
       <c r="G17" s="19"/>
       <c r="H17" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M17" s="8">
         <v>58</v>
@@ -4353,7 +4346,7 @@
     <row r="18" s="8" customFormat="1" spans="7:13">
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M18" s="8">
         <v>57</v>
@@ -4362,7 +4355,7 @@
     <row r="19" s="8" customFormat="1" spans="7:13">
       <c r="G19" s="19"/>
       <c r="H19" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M19" s="8">
         <v>56</v>
@@ -4371,7 +4364,7 @@
     <row r="20" s="8" customFormat="1" spans="7:13">
       <c r="G20" s="19"/>
       <c r="H20" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M20" s="8">
         <v>55</v>
@@ -4380,7 +4373,7 @@
     <row r="21" s="8" customFormat="1" spans="7:13">
       <c r="G21" s="19"/>
       <c r="H21" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M21" s="8">
         <v>54</v>
@@ -4389,19 +4382,19 @@
     <row r="22" s="8" customFormat="1" spans="7:8">
       <c r="G22" s="19"/>
       <c r="H22" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="7:8">
       <c r="G23" s="19"/>
       <c r="H23" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="7:8">
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="7:7">
@@ -4412,121 +4405,121 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G34" s="26"/>
       <c r="I34" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="1" ht="38.25" spans="2:9">
       <c r="B35" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G35" s="26"/>
       <c r="I35" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="1" ht="51" spans="2:9">
       <c r="B36" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="1" ht="51" spans="2:8">
       <c r="B37" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="1" ht="38.25" spans="2:8">
       <c r="B38" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B39" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4534,7 +4527,7 @@
     </row>
     <row r="40" s="18" customFormat="1" ht="38.25" spans="2:7">
       <c r="B40" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4575,284 +4568,284 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="C6" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="C8" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4877,174 +4870,174 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:4">
       <c r="D13" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:4">
       <c r="D14" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5069,80 +5062,80 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5173,388 +5166,388 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5581,46 +5574,46 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F4" s="1">
         <v>14999</v>
@@ -5628,26 +5621,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5675,37 +5668,37 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
